--- a/中国玉米平衡表.xlsx
+++ b/中国玉米平衡表.xlsx
@@ -3773,6 +3773,14 @@
             <v>0.11219999999999999</v>
           </cell>
         </row>
+        <row r="61">
+          <cell r="B61">
+            <v>66</v>
+          </cell>
+          <cell r="D61">
+            <v>0.32290000000000002</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -4072,7 +4080,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5613,11 +5621,11 @@
       </c>
       <c r="B6">
         <f>SUM([2]Sheet1!$B$55:$B$66)</f>
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C6" s="6">
         <f>SUM([2]Sheet1!$D$55:$D$66)</f>
-        <v>0.46209999999999996</v>
+        <v>0.78499999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/中国玉米平衡表.xlsx
+++ b/中国玉米平衡表.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="平衡表总表" sheetId="1" r:id="rId1"/>
     <sheet name="进出口" sheetId="2" r:id="rId2"/>
+    <sheet name="高粱大麦平衡表-天下粮仓" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
@@ -741,6 +742,87 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427714</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7285714" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>303858</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="0"/>
+          <a:ext cx="7533333" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3779,6 +3861,14 @@
           </cell>
           <cell r="D61">
             <v>0.32290000000000002</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>75</v>
+          </cell>
+          <cell r="D62">
+            <v>0.19070000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -4076,11 +4166,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5621,15 +5711,31 @@
       </c>
       <c r="B6">
         <f>SUM([2]Sheet1!$B$55:$B$66)</f>
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="C6" s="6">
         <f>SUM([2]Sheet1!$D$55:$D$66)</f>
-        <v>0.78499999999999992</v>
+        <v>0.9756999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>